--- a/zib2017-2020/mapping/excel/Wond.xlsx
+++ b/zib2017-2020/mapping/excel/Wond.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$18</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -318,7 +321,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE403"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -613,6 +645,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -1149,6 +1188,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O18"/>
+  <conditionalFormatting sqref="E2:E18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"groen: geen wijzigingen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"geel: patch wijziging"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"oranje: minor change"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"rood: major change"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zib2017-2020/mapping/excel/Wond.xlsx
+++ b/zib2017-2020/mapping/excel/Wond.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267805B8-06B8-094A-9598-6C3792F42E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="26360" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$21</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="85">
   <si>
     <t>ZibName</t>
   </si>
@@ -214,9 +220,6 @@
     <t>nieuwe verwijzing naar sub-bouwsteen anatomischeLocatie</t>
   </si>
   <si>
-    <t>SNOMED CT en LOINC DefintionCodes concept aangepast</t>
-  </si>
-  <si>
     <t>CHANGE TO SUB HCIM</t>
   </si>
   <si>
@@ -226,41 +229,62 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>codelist [WondAnatomischeLocatieCodelijst]-&gt;[LocatieCodelijst (http://decor.nictiz.nl/fhir/ValueSet/2.16.840.1.113883.2.4.3.11.60.40.2.20.7.1--20200901000000)]</t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [401238003 Length of wound] -&gt; [blank];LOINC DefinitionCode [blank] -&gt; [39126-8 Duur [lengte] in wond]</t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [401239006 Width of wound] -&gt; [blank];LOINC DefinitionCode [blank] -&gt; [39125-0 Breedte [lengte] in wond]</t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [425094009 Depth of wound] -&gt; [blank];LOINC DefinitionCode [blank] -&gt; [39127-6 Diepte [lengte] in wond]</t>
-  </si>
-  <si>
-    <t>codelist [WondLateraliteitCodelijst]-&gt;[LateraliteitCodelijst (http://decor.nictiz.nl/fhir/ValueSet/2.16.840.1.113883.2.4.3.11.60.40.2.20.7.2--20200901000000)]</t>
-  </si>
-  <si>
-    <t>codelist [LocatieCodelijst (http://decor.nictiz.nl/fhir/ValueSet/2.16.840.1.113883.2.4.3.11.60.40.2.20.7.1--20200901000000)]-&gt;[WondAnatomischeLocatieCodelijst]</t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [blank] -&gt; [401238003 Length of wound];[@[TRANSLATIE_specificatie_2020&gt;2017]]</t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [blank] -&gt; [401239006 Width of wound];[@[TRANSLATIE_specificatie_2020&gt;2017]]</t>
-  </si>
-  <si>
-    <t>SCT DefintionCode [blank] -&gt; [425094009 Depth of wound];[@[TRANSLATIE_specificatie_2020&gt;2017]]</t>
-  </si>
-  <si>
-    <t>codelist [LateraliteitCodelijst (http://decor.nictiz.nl/fhir/ValueSet/2.16.840.1.113883.2.4.3.11.60.40.2.20.7.2--20200901000000)]-&gt;[WondLateraliteitCodelijst]</t>
+    <t>codelist [WondAnatomischeLocatieCodelijst]-&gt;[LocatieCodelijst]</t>
+  </si>
+  <si>
+    <t>codelist [WondLateraliteitCodelijst]-&gt;[LateraliteitCodelijst]</t>
+  </si>
+  <si>
+    <t>codelist [LateraliteitCodelijst]-&gt;[WondLateraliteitCodelijst]</t>
+  </si>
+  <si>
+    <t>codelist [LocatieCodelijst]-&gt;[WondAnatomischeLocatieCodelijst]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [401238003 Length of wound] -&gt; [blank]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [401239006 Width of wound] -&gt; [blank]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [425094009 Depth of wound] -&gt; [blank]</t>
+  </si>
+  <si>
+    <t>LOINC DefinitionCode [blank] -&gt; [39126-8 Duur [lengte] in wond]</t>
+  </si>
+  <si>
+    <t>LOINC DefinitionCode [blank] -&gt; [39125-0 Breedte [lengte] in wond]</t>
+  </si>
+  <si>
+    <t>LOINC DefinitionCode [blank] -&gt; [39127-6 Diepte [lengte] in wond]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [401238003 Length of wound]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [401239006 Width of wound]</t>
+  </si>
+  <si>
+    <t>SCT DefintionCode [blank] -&gt; [425094009 Depth of wound]</t>
+  </si>
+  <si>
+    <t>LOINC DefinitionCode[39126-8 Duur [lengte] in wond]-&gt; [blank]</t>
+  </si>
+  <si>
+    <t>LOINC  [39125-0 Breedte [lengte] in wond]-&gt;DefinitionCode [blank]</t>
+  </si>
+  <si>
+    <t>LOINC [39127-6 Diepte [lengte] in wond]-&gt;DefinitionCode [blank]</t>
+  </si>
+  <si>
+    <t>De codes voor wondlengte, -breedte en -diepte zijn gewijzigd van SNOMED CT naar LOINC codes in lijn met het advies van het Terminologie centrum en voor consistentie met de zib DecubitusWond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,7 +349,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
         </patternFill>
       </fill>
     </dxf>
@@ -339,26 +370,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA003"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -396,7 +428,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -430,6 +462,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -464,9 +497,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -639,21 +673,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="15" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -720,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -740,7 +776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -760,7 +796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -786,7 +822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -812,7 +848,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -838,7 +874,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -864,7 +900,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -884,7 +920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -916,22 +952,22 @@
         <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
         <v>68</v>
       </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -951,7 +987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -977,7 +1013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1000,25 +1036,25 @@
         <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1041,25 +1077,25 @@
         <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1082,124 +1118,247 @@
         <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
         <v>66</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O18"/>
-  <conditionalFormatting sqref="E2:E18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <autoFilter ref="A1:O21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="E2:E21">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/Wond.xlsx
+++ b/zib2017-2020/mapping/excel/Wond.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267805B8-06B8-094A-9598-6C3792F42E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637FE9F5-EF73-404E-B80A-54E75C3897AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="26360" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$21</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="82">
   <si>
     <t>ZibName</t>
   </si>
@@ -229,18 +242,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>codelist [WondAnatomischeLocatieCodelijst]-&gt;[LocatieCodelijst]</t>
-  </si>
-  <si>
-    <t>codelist [WondLateraliteitCodelijst]-&gt;[LateraliteitCodelijst]</t>
-  </si>
-  <si>
-    <t>codelist [LateraliteitCodelijst]-&gt;[WondLateraliteitCodelijst]</t>
-  </si>
-  <si>
-    <t>codelist [LocatieCodelijst]-&gt;[WondAnatomischeLocatieCodelijst]</t>
-  </si>
-  <si>
     <t>SCT DefintionCode [401238003 Length of wound] -&gt; [blank]</t>
   </si>
   <si>
@@ -278,6 +279,9 @@
   </si>
   <si>
     <t>De codes voor wondlengte, -breedte en -diepte zijn gewijzigd van SNOMED CT naar LOINC codes in lijn met het advies van het Terminologie centrum en voor consistentie met de zib DecubitusWond</t>
+  </si>
+  <si>
+    <t>source -&gt; target</t>
   </si>
 </sst>
 </file>
@@ -676,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,19 +745,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -761,19 +771,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -781,19 +791,19 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -801,25 +811,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -958,13 +962,13 @@
         <v>67</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
         <v>67</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1036,7 +1040,7 @@
         <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
         <v>66</v>
@@ -1045,13 +1049,13 @@
         <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N13" t="s">
         <v>67</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1059,25 +1063,25 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
         <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
         <v>66</v>
@@ -1086,13 +1090,13 @@
         <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N14" t="s">
         <v>67</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1100,25 +1104,25 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
         <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
         <v>66</v>
@@ -1127,13 +1131,13 @@
         <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N15" t="s">
         <v>67</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1141,25 +1145,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
         <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
         <v>66</v>
@@ -1168,13 +1172,13 @@
         <v>67</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s">
         <v>67</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1182,25 +1186,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
         <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
         <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
         <v>66</v>
@@ -1209,13 +1213,13 @@
         <v>67</v>
       </c>
       <c r="M17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" t="s">
         <v>76</v>
-      </c>
-      <c r="N17" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1241,7 +1245,7 @@
         <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
         <v>66</v>
@@ -1250,13 +1254,13 @@
         <v>67</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s">
         <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1337,13 +1341,13 @@
         <v>67</v>
       </c>
       <c r="M21" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
         <v>67</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
